--- a/GWD Data/PVC With Trench.xlsx
+++ b/GWD Data/PVC With Trench.xlsx
@@ -95,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -105,24 +105,13 @@
     <font>
       <b/>
       <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Merriweather"/>
     </font>
     <font/>
     <font>
-      <b/>
       <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
       <name val="Merriweather"/>
     </font>
   </fonts>
@@ -262,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -271,67 +260,64 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -548,7 +534,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FF00FF00"/>
+    <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -639,10 +625,10 @@
       <c r="D6" s="13">
         <v>11.5</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>475.0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>D6*E6</f>
         <v>5462.5</v>
       </c>
@@ -658,100 +644,100 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f>F6*0.01</f>
         <v>54.625</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f>SUM(F6:F8)</f>
         <v>5517.125</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f>F9*0.15</f>
         <v>827.56875</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <f>SUM(F9:F10)</f>
         <v>6344.69375</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f>F11</f>
         <v>6344.69375</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f>round(F12/10,2)</f>
         <v>634.47</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>116.0</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>0.12</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>784.0</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <f t="shared" ref="F14:F15" si="1">D14*E14</f>
         <v>94.08</v>
       </c>
@@ -769,10 +755,10 @@
       <c r="D15" s="13">
         <v>0.25</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>645.0</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <f t="shared" si="1"/>
         <v>161.25</v>
       </c>
@@ -800,128 +786,128 @@
       <c r="D17" s="13">
         <v>0.66</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>645.0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <f t="shared" ref="F17:F18" si="2">D17*E17</f>
         <v>425.7</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>115.0</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>0.66</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>645.0</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <f t="shared" si="2"/>
         <v>425.7</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="23"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="25">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="24">
         <f>SUM(F14:F18)</f>
         <v>1106.73</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="25">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="24">
         <f>F19*0.01</f>
         <v>11.0673</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="24">
         <f>SUM(F19:F20)</f>
         <v>1117.7973</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="23"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="25">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="24">
         <f>F21*0.15</f>
         <v>167.669595</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="25">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="24">
         <f>SUM(F21:F22)</f>
         <v>1285.466895</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="23"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="25">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="24">
         <f>F23</f>
         <v>1285.466895</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="19">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="18">
         <f>round(F24/10,2)</f>
         <v>128.55</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29" t="str">
+      <c r="A26" s="28" t="str">
         <f>CONCATENATE("Say ₹ ",F13," + ",F25," x Cost Index")</f>
         <v>Say ₹ 634.47 + 128.55 x Cost Index</v>
       </c>

--- a/GWD Data/PVC With Trench.xlsx
+++ b/GWD Data/PVC With Trench.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>PVC Pipe With Trenching</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>TOTAL  </t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 63 mm dia 10 KGF/cm2</t>
+  </si>
+  <si>
+    <t>MR10234</t>
+  </si>
+  <si>
+    <t>PVC Pipe, 10kg/cm2, 63mm Dia.</t>
   </si>
 </sst>
 </file>
@@ -115,7 +124,7 @@
       <name val="Merriweather"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +141,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -323,6 +338,66 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +621,7 @@
     <col customWidth="1" min="2" max="2" width="32.75"/>
     <col customWidth="1" min="3" max="3" width="6.75"/>
     <col customWidth="1" min="4" max="4" width="9.75"/>
-    <col customWidth="1" min="5" max="5" width="6.0"/>
+    <col customWidth="1" min="5" max="5" width="7.0"/>
     <col customWidth="1" min="6" max="6" width="12.88"/>
   </cols>
   <sheetData>
@@ -917,8 +992,392 @@
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
+    <row r="27">
+      <c r="A27" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10"/>
+      <c r="B30" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="35">
+        <v>11.5</v>
+      </c>
+      <c r="E31" s="33">
+        <v>150.0</v>
+      </c>
+      <c r="F31" s="36">
+        <f>D31*E31</f>
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10"/>
+      <c r="B32" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="39">
+        <f>F31*0.01</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="39">
+        <f>SUM(F31:F33)</f>
+        <v>1742.25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="39">
+        <f>F34*0.15</f>
+        <v>261.3375</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="39">
+        <f>SUM(F34:F35)</f>
+        <v>2003.5875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="37"/>
+      <c r="B37" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="39">
+        <f>F36</f>
+        <v>2003.5875</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="40">
+        <f>round(F37/10,2)</f>
+        <v>200.36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="37">
+        <v>116.0</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="E39" s="41">
+        <v>784.0</v>
+      </c>
+      <c r="F39" s="39">
+        <f t="shared" ref="F39:F40" si="3">D39*E39</f>
+        <v>94.08</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="35">
+        <v>114.0</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="E40" s="33">
+        <v>645.0</v>
+      </c>
+      <c r="F40" s="42">
+        <f t="shared" si="3"/>
+        <v>161.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10"/>
+      <c r="B41" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="35">
+        <v>114.0</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="35">
+        <v>0.66</v>
+      </c>
+      <c r="E42" s="33">
+        <v>645.0</v>
+      </c>
+      <c r="F42" s="42">
+        <f t="shared" ref="F42:F43" si="4">D42*E42</f>
+        <v>425.7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43">
+        <v>115.0</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="43">
+        <v>0.66</v>
+      </c>
+      <c r="E43" s="45">
+        <v>645.0</v>
+      </c>
+      <c r="F43" s="46">
+        <f t="shared" si="4"/>
+        <v>425.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="44"/>
+      <c r="B44" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="46">
+        <f>SUM(F39:F43)</f>
+        <v>1106.73</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="44"/>
+      <c r="B45" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="46">
+        <f>F44*0.01</f>
+        <v>11.0673</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="44"/>
+      <c r="B46" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="46">
+        <f>SUM(F44:F45)</f>
+        <v>1117.7973</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="44"/>
+      <c r="B47" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="46">
+        <f>F46*0.15</f>
+        <v>167.669595</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="44"/>
+      <c r="B48" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="46">
+        <f>SUM(F46:F47)</f>
+        <v>1285.466895</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="44"/>
+      <c r="B49" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="46">
+        <f>F48</f>
+        <v>1285.466895</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="44"/>
+      <c r="B50" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="40">
+        <f>round(F49/10,2)</f>
+        <v>128.55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="48" t="str">
+        <f>CONCATENATE("Say ₹ ",F38," + ",F50," x Cost Index")</f>
+        <v>Say ₹ 200.36 + 128.55 x Cost Index</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="61">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -937,12 +1396,6 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -950,6 +1403,15 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
